--- a/MGBC_BOM.xlsx
+++ b/MGBC_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\MGBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E92C54D-9B0B-4C24-91AF-CA599AB7B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1031567F-017F-4178-B2E3-F8155064769E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{144A499F-D6CC-4A00-9B65-71941FA1A8E7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="233">
   <si>
     <t>Package</t>
   </si>
@@ -55,6 +55,9 @@
     <t>100pF</t>
   </si>
   <si>
+    <t>C6</t>
+  </si>
+  <si>
     <t>C7</t>
   </si>
   <si>
@@ -701,9 +704,6 @@
   </si>
   <si>
     <t>Make sure you get an "IPS Lens" as the viewing area is larger than the OEM one</t>
-  </si>
-  <si>
-    <t>Example (use code CodyWick13 or Jack at checkout for 10% off at RGRS!)</t>
   </si>
   <si>
     <t>https://retrogamerepairshop.com/collections/gbc-displays/products/game-boy-color-q5-ips-backlight-with-osd?variant=37646279213228
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>Cart link: https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=be99fee590</t>
+  </si>
+  <si>
+    <t>Example (use code CODYWICK13 or JACKV at checkout for 10% off at RGRS!)</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1308,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,13 +1320,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1337,51 +1340,51 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>224</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>227</v>
@@ -1405,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DE7B80-5B2D-4D07-8BFA-0411C41B59CF}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,13 +1435,13 @@
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>0</v>
@@ -1447,18 +1450,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1466,35 +1469,35 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3">
         <v>8</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1509,16 +1512,16 @@
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1533,40 +1536,40 @@
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1581,20 +1584,20 @@
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1603,183 +1606,183 @@
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="G10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -1788,50 +1791,50 @@
         <v>744235601</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" s="6">
         <v>1206</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="31" t="s">
@@ -1841,344 +1844,344 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E20" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="5">
         <v>1206</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -2187,42 +2190,42 @@
         <v>100</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" s="2">
         <v>2</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
@@ -2231,20 +2234,20 @@
         <v>510</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -2253,54 +2256,54 @@
         <v>270</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -2308,555 +2311,570 @@
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F48" t="s">
+        <v>189</v>
+      </c>
+      <c r="H48" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C52" s="2">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H52" s="31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C53" s="2">
         <v>2</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="32" t="s">
-        <v>75</v>
-      </c>
+      <c r="C54" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="1" t="s">
-        <v>191</v>
+        <v>10</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
-        <v>192</v>
-      </c>
-      <c r="E55" s="24">
-        <v>1212</v>
-      </c>
-      <c r="F55" t="s">
-        <v>195</v>
-      </c>
-      <c r="H55" s="31" t="s">
-        <v>204</v>
+      <c r="D55" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
       </c>
-      <c r="E56" s="25" t="s">
-        <v>69</v>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="24">
+        <v>1212</v>
       </c>
       <c r="F56" t="s">
         <v>196</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
       </c>
-      <c r="D57" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G57" s="28"/>
-      <c r="H57" s="32" t="s">
-        <v>118</v>
+      <c r="E57" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="1" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>69</v>
+        <v>116</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G58" s="28"/>
       <c r="H58" s="32" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
+        <v>201</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="28"/>
+      <c r="H59" s="32" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
+        <v>29</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="31" t="s">
-        <v>185</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G62" s="28"/>
       <c r="H62" s="31" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="1" t="s">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
       </c>
-      <c r="D63" s="29" t="s">
-        <v>33</v>
+      <c r="D63" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F63" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G63" s="28"/>
       <c r="H63" s="31" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
       </c>
-      <c r="D64" s="28" t="s">
-        <v>37</v>
+      <c r="D64" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G64" s="28"/>
       <c r="H64" s="31" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
-      <c r="D65" s="29" t="s">
-        <v>27</v>
+      <c r="D65" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G65" s="28"/>
       <c r="H65" s="31" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
       </c>
-      <c r="D66" t="s">
-        <v>194</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F66" t="s">
-        <v>198</v>
-      </c>
+      <c r="D66" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" s="28"/>
       <c r="H66" s="31" t="s">
-        <v>205</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F67" s="23" t="s">
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G68" s="23"/>
+      <c r="H68" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="G67" s="23"/>
-      <c r="H67" s="31" t="s">
-        <v>187</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:A51"/>
-    <mergeCell ref="C59:H59"/>
     <mergeCell ref="C60:H60"/>
-    <mergeCell ref="A52:A67"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="A52:A68"/>
+    <mergeCell ref="C54:H54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{D45AD95B-8FD5-4DFA-B16E-7E7A0A1FB926}"/>
@@ -2901,20 +2919,20 @@
     <hyperlink ref="H39" r:id="rId40" xr:uid="{054465DB-4302-4E56-A7FE-BF0A1DC2FB83}"/>
     <hyperlink ref="H48" r:id="rId41" xr:uid="{20355EB6-1FB1-479E-ACCF-8E1D13E155F6}"/>
     <hyperlink ref="H50" r:id="rId42" xr:uid="{BFDE98A1-6D04-4B89-8956-D3030CD38AD6}"/>
-    <hyperlink ref="H58" r:id="rId43" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
-    <hyperlink ref="H61" r:id="rId44" xr:uid="{B4F374ED-2746-4501-AA62-59AC07D0A068}"/>
-    <hyperlink ref="H64" r:id="rId45" xr:uid="{D323C790-8AE1-439B-B0EA-682F9E630569}"/>
-    <hyperlink ref="H63" r:id="rId46" xr:uid="{18C05C30-6F1A-4A36-A3C7-4E35FF75CA7D}"/>
-    <hyperlink ref="H62" r:id="rId47" xr:uid="{8118F84A-26E5-4AC1-8F87-F9AE22AEA1B4}"/>
-    <hyperlink ref="H57" r:id="rId48" xr:uid="{238B314D-E675-4C57-AC4F-9C9B0CE1A42C}"/>
+    <hyperlink ref="H59" r:id="rId43" xr:uid="{8E0B8554-6310-4250-947C-AA9A21F28BB4}"/>
+    <hyperlink ref="H62" r:id="rId44" xr:uid="{B4F374ED-2746-4501-AA62-59AC07D0A068}"/>
+    <hyperlink ref="H65" r:id="rId45" xr:uid="{D323C790-8AE1-439B-B0EA-682F9E630569}"/>
+    <hyperlink ref="H64" r:id="rId46" xr:uid="{18C05C30-6F1A-4A36-A3C7-4E35FF75CA7D}"/>
+    <hyperlink ref="H63" r:id="rId47" xr:uid="{8118F84A-26E5-4AC1-8F87-F9AE22AEA1B4}"/>
+    <hyperlink ref="H58" r:id="rId48" xr:uid="{238B314D-E675-4C57-AC4F-9C9B0CE1A42C}"/>
     <hyperlink ref="H53" r:id="rId49" xr:uid="{0A7A38D1-FEE4-4982-B371-BF0FCA8726EA}"/>
-    <hyperlink ref="H54" r:id="rId50" xr:uid="{8F59EA80-D06D-4D63-983E-BA1D165B3F68}"/>
+    <hyperlink ref="H55" r:id="rId50" xr:uid="{8F59EA80-D06D-4D63-983E-BA1D165B3F68}"/>
     <hyperlink ref="H52" r:id="rId51" xr:uid="{7F4951F8-4AAB-4469-84F9-3294ECBC6E38}"/>
-    <hyperlink ref="H55" r:id="rId52" xr:uid="{C83D8450-226A-4614-80F6-99DAEC52CB17}"/>
-    <hyperlink ref="H65" r:id="rId53" xr:uid="{5E27EEE6-7DA6-44D0-967D-58F2D21F833C}"/>
-    <hyperlink ref="H67" r:id="rId54" xr:uid="{BCD2649B-51A4-45CC-9662-45EBDF1FC35C}"/>
-    <hyperlink ref="H66" r:id="rId55" xr:uid="{CF24FA81-75CA-4AC4-9737-D04B43A1D21E}"/>
-    <hyperlink ref="H56" r:id="rId56" xr:uid="{139B8200-FBE0-45C7-9ABF-F0424FB79BA8}"/>
+    <hyperlink ref="H56" r:id="rId52" xr:uid="{C83D8450-226A-4614-80F6-99DAEC52CB17}"/>
+    <hyperlink ref="H66" r:id="rId53" xr:uid="{5E27EEE6-7DA6-44D0-967D-58F2D21F833C}"/>
+    <hyperlink ref="H68" r:id="rId54" xr:uid="{BCD2649B-51A4-45CC-9662-45EBDF1FC35C}"/>
+    <hyperlink ref="H67" r:id="rId55" xr:uid="{CF24FA81-75CA-4AC4-9737-D04B43A1D21E}"/>
+    <hyperlink ref="H57" r:id="rId56" xr:uid="{139B8200-FBE0-45C7-9ABF-F0424FB79BA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId57"/>

--- a/MGBC_BOM.xlsx
+++ b/MGBC_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\MGBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1031567F-017F-4178-B2E3-F8155064769E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C83F2A-8965-4019-908C-209647264532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{144A499F-D6CC-4A00-9B65-71941FA1A8E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{144A499F-D6CC-4A00-9B65-71941FA1A8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Assembly" sheetId="3" r:id="rId1"/>
@@ -723,10 +723,10 @@
     <t>https://www.mouser.com/ProductDetail/Vishay-Beyschlag/MFU1206FF01000P100?qs=oI046glRurt%252B%252B2FebA%252B66A%3D%3D</t>
   </si>
   <si>
-    <t>Cart link: https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=be99fee590</t>
-  </si>
-  <si>
     <t>Example (use code CODYWICK13 or JACKV at checkout for 10% off at RGRS!)</t>
+  </si>
+  <si>
+    <t>Cart link: https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=1970a339d8</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1326,7 @@
         <v>159</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1410,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DE7B80-5B2D-4D07-8BFA-0411C41B59CF}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1430,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="G1" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">

--- a/MGBC_BOM.xlsx
+++ b/MGBC_BOM.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\MGBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F54477-E3BA-4042-91C9-EB129C5974FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA0D49-7E1A-45F7-AA65-3DEE266886EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{144A499F-D6CC-4A00-9B65-71941FA1A8E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{144A499F-D6CC-4A00-9B65-71941FA1A8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="MGBC-MBL-01" sheetId="1" r:id="rId1"/>
     <sheet name="Pocket Mouse Power Board" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MGBC-MBL-01'!$A$2:$G$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MGBC-MBL-01'!$A$2:$G$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="221">
   <si>
     <t>Package</t>
   </si>
@@ -100,34 +100,19 @@
     <t>1k</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
     <t>18k</t>
   </si>
   <si>
+    <t>R4</t>
+  </si>
+  <si>
     <t>100k</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>300k</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>R25</t>
+    <t>200k</t>
   </si>
   <si>
     <t>1.5M</t>
@@ -340,9 +325,6 @@
     <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07100KL?qs=e1ok2LiJcmaihem8Va5%2Fsw%3D%3D</t>
   </si>
   <si>
-    <t>R1, R11, R22, R23</t>
-  </si>
-  <si>
     <t>Recommended at least 1% tolerance</t>
   </si>
   <si>
@@ -502,15 +484,6 @@
     <t>https://www.mouser.com/ProductDetail/688-SKRRAB</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07300KL?qs=diQw95jMAeNfdIj8TA3yIQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-074K7L?qs=gt6vzsuosg37y0l7Vt36bQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-073ML?qs=0yPvnVz5%2FmoE%252BprhggKQOw%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/YAGEO/TC164-JR-07270RL?qs=8cPjvKtxWv4v1GF6%2FXOmfA%3D%3D</t>
   </si>
   <si>
@@ -637,12 +610,6 @@
     <t>R3, R9, R11, R31, R33</t>
   </si>
   <si>
-    <t>R4, R10, R36</t>
-  </si>
-  <si>
-    <t>402k</t>
-  </si>
-  <si>
     <t>270 (x4)</t>
   </si>
   <si>
@@ -661,9 +628,6 @@
     <t>10k (x2)</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07402KL?qs=e5TEs1AaK9ZgNZ9JLlILuQ%3D%3D</t>
-  </si>
-  <si>
     <t>C1, C3, C5</t>
   </si>
   <si>
@@ -709,7 +673,25 @@
     <t>Z0805C221BPWZT</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=bc22c05d94</t>
+    <t>R8, R10, R36</t>
+  </si>
+  <si>
+    <t>140k</t>
+  </si>
+  <si>
+    <t>R2, R25</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-10200KL?qs=x6vGwhDZZUbWpD4Ucl8tsQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07140KL?qs=IuGqVx9wL0ITcCE98xJS3Q%3D%3D</t>
+  </si>
+  <si>
+    <t>R1, R22, R23</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=2362d7198d</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DE7B80-5B2D-4D07-8BFA-0411C41B59CF}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -1222,21 +1204,21 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="F1" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>220</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>0</v>
@@ -1245,36 +1227,36 @@
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -1282,13 +1264,13 @@
       <c r="C4" s="18"/>
       <c r="D4" s="24"/>
       <c r="E4" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1302,21 +1284,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -1325,21 +1307,21 @@
         <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G6" s="30" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1348,21 +1330,21 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2">
         <v>11</v>
@@ -1371,16 +1353,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G8" s="28" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,14 +1376,14 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1415,18 +1397,18 @@
         <v>12</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -1435,19 +1417,19 @@
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="26" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -1456,39 +1438,39 @@
         <v>10</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="G13" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1499,19 +1481,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -1526,21 +1508,21 @@
         <v>744235601</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1549,42 +1531,42 @@
         <v>15</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1593,14 +1575,14 @@
         <v>17</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1611,17 +1593,17 @@
         <v>1</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19" s="24">
         <v>1206</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1632,17 +1614,17 @@
         <v>1</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,36 +1637,36 @@
       <c r="C21" s="23"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1692,35 +1674,35 @@
       <c r="C23" s="23"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1728,11 +1710,11 @@
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1743,372 +1725,373 @@
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>106</v>
+        <v>27</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="24">
-        <v>100</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>107</v>
+      <c r="C31" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="26" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B32" s="2">
-        <v>5</v>
-      </c>
-      <c r="C32" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>101</v>
+      <c r="D32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="28" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="C34" s="24">
+        <v>100</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>203</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="26" t="s">
-        <v>210</v>
+      <c r="G35" s="28" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="26" t="s">
-        <v>157</v>
+        <v>2</v>
+      </c>
+      <c r="C36" s="18">
+        <v>510</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8" t="s">
-        <v>158</v>
+      <c r="C37" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1206</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="B38" s="2">
-        <v>2</v>
-      </c>
-      <c r="C38" s="18">
-        <v>510</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="25">
-        <v>1206</v>
-      </c>
-      <c r="E39" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>160</v>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="12" t="s">
-        <v>94</v>
+      <c r="C41" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" t="s">
+      <c r="C42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="F42" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="G42" s="28" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="13" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>117</v>
@@ -2116,156 +2099,112 @@
       <c r="E44" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="9" t="s">
-        <v>121</v>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="G46" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>216</v>
+      <c r="C47" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="26" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>123</v>
+      <c r="C48" t="s">
+        <v>198</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>208</v>
+      <c r="A49" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>47</v>
+      <c r="C49" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="13" t="s">
-        <v>116</v>
+      <c r="G49" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2286,37 +2225,35 @@
     <hyperlink ref="G20" r:id="rId14" xr:uid="{90D07B09-2D45-4A67-9BB6-0B9E409F2305}"/>
     <hyperlink ref="G26" r:id="rId15" xr:uid="{541A0AFD-5041-4150-B4D9-A25058B21276}"/>
     <hyperlink ref="G27" r:id="rId16" xr:uid="{90876A1D-B5D7-4740-8035-183636D12898}"/>
-    <hyperlink ref="G32" r:id="rId17" xr:uid="{4A791D14-D2F5-4B87-8149-44104CDDF21D}"/>
-    <hyperlink ref="G34" r:id="rId18" xr:uid="{C03CDFEB-5582-4ABD-BDFA-676F16815DAE}"/>
-    <hyperlink ref="G29" r:id="rId19" xr:uid="{79C0FE27-0806-442C-A6CE-F3CC2C6B89FD}"/>
-    <hyperlink ref="G30" r:id="rId20" xr:uid="{52FC585F-A5A4-4C1A-BAD7-039005B450BE}"/>
-    <hyperlink ref="G31" r:id="rId21" xr:uid="{4F57002D-8AD1-452B-B3F2-84F5AFBE0781}"/>
-    <hyperlink ref="G33" r:id="rId22" xr:uid="{C9270F3C-69B3-4FBA-8E22-74ACEC3FE0BF}"/>
-    <hyperlink ref="G38" r:id="rId23" xr:uid="{1B6B5A8E-BAD5-4F2A-A98F-42922CA8216B}"/>
-    <hyperlink ref="G42" r:id="rId24" xr:uid="{7CC5CD68-8ED8-4B04-B5B7-5996D580BA92}"/>
-    <hyperlink ref="G45" r:id="rId25" xr:uid="{9F6465C5-1171-4956-920C-CE57D73802C9}"/>
-    <hyperlink ref="G46" r:id="rId26" xr:uid="{193E0BC8-3877-4BD2-B4DF-B4CCA21AF575}"/>
-    <hyperlink ref="G48" r:id="rId27" xr:uid="{2BA055BC-33C7-4EC0-B3DE-FCB62EDBF9B6}"/>
+    <hyperlink ref="G29" r:id="rId17" xr:uid="{4A791D14-D2F5-4B87-8149-44104CDDF21D}"/>
+    <hyperlink ref="G32" r:id="rId18" xr:uid="{C03CDFEB-5582-4ABD-BDFA-676F16815DAE}"/>
+    <hyperlink ref="G28" r:id="rId19" xr:uid="{79C0FE27-0806-442C-A6CE-F3CC2C6B89FD}"/>
+    <hyperlink ref="G33" r:id="rId20" xr:uid="{52FC585F-A5A4-4C1A-BAD7-039005B450BE}"/>
+    <hyperlink ref="G34" r:id="rId21" xr:uid="{4F57002D-8AD1-452B-B3F2-84F5AFBE0781}"/>
+    <hyperlink ref="G35" r:id="rId22" xr:uid="{C9270F3C-69B3-4FBA-8E22-74ACEC3FE0BF}"/>
+    <hyperlink ref="G36" r:id="rId23" xr:uid="{1B6B5A8E-BAD5-4F2A-A98F-42922CA8216B}"/>
+    <hyperlink ref="G40" r:id="rId24" xr:uid="{7CC5CD68-8ED8-4B04-B5B7-5996D580BA92}"/>
+    <hyperlink ref="G43" r:id="rId25" xr:uid="{9F6465C5-1171-4956-920C-CE57D73802C9}"/>
+    <hyperlink ref="G44" r:id="rId26" xr:uid="{193E0BC8-3877-4BD2-B4DF-B4CCA21AF575}"/>
+    <hyperlink ref="G46" r:id="rId27" xr:uid="{2BA055BC-33C7-4EC0-B3DE-FCB62EDBF9B6}"/>
     <hyperlink ref="G22" r:id="rId28" xr:uid="{07E1C21D-7544-4576-ADC3-FDC2DD346D0A}"/>
     <hyperlink ref="G12" r:id="rId29" xr:uid="{ED7A4517-F5B6-4019-910B-F03FBBD60B75}"/>
     <hyperlink ref="G23" r:id="rId30" xr:uid="{812C3C35-C462-4997-99B7-C2132E686FDB}"/>
     <hyperlink ref="G4" r:id="rId31" xr:uid="{5F2542B3-864C-4058-9059-E399B834DEB4}"/>
-    <hyperlink ref="G40" r:id="rId32" xr:uid="{92A70BE1-ACE2-428F-B2EA-1DAE9F879001}"/>
+    <hyperlink ref="G38" r:id="rId32" xr:uid="{92A70BE1-ACE2-428F-B2EA-1DAE9F879001}"/>
     <hyperlink ref="G3" r:id="rId33" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
-    <hyperlink ref="G37" r:id="rId34" xr:uid="{059D9A13-E6C6-44D5-B932-16447889D8EA}"/>
-    <hyperlink ref="G28" r:id="rId35" xr:uid="{B2F3DEDA-6E9A-4E1C-B554-3BDF8D4A34E9}"/>
-    <hyperlink ref="G39" r:id="rId36" xr:uid="{054465DB-4302-4E56-A7FE-BF0A1DC2FB83}"/>
-    <hyperlink ref="G49" r:id="rId37" xr:uid="{20355EB6-1FB1-479E-ACCF-8E1D13E155F6}"/>
-    <hyperlink ref="G50" r:id="rId38" xr:uid="{BFDE98A1-6D04-4B89-8956-D3030CD38AD6}"/>
-    <hyperlink ref="G36" r:id="rId39" xr:uid="{ED6AFBAF-7337-49F4-9BEA-E3845062EE19}"/>
-    <hyperlink ref="G35" r:id="rId40" xr:uid="{D7927581-FF7A-490B-B0CE-C8A25E4C23A9}"/>
-    <hyperlink ref="G44" r:id="rId41" xr:uid="{67FEFF64-1331-42FD-8915-1EC521A5F24A}"/>
-    <hyperlink ref="G47" r:id="rId42" xr:uid="{BD6435AD-7ED9-4E3E-9E6C-CBC58539481F}"/>
-    <hyperlink ref="G24" r:id="rId43" xr:uid="{58835B4D-8F80-43FA-B322-5108661F409B}"/>
-    <hyperlink ref="G1" r:id="rId44" xr:uid="{3479F6E9-AAA2-498E-8508-C18453B8DA4A}"/>
+    <hyperlink ref="G37" r:id="rId34" xr:uid="{054465DB-4302-4E56-A7FE-BF0A1DC2FB83}"/>
+    <hyperlink ref="G47" r:id="rId35" xr:uid="{20355EB6-1FB1-479E-ACCF-8E1D13E155F6}"/>
+    <hyperlink ref="G48" r:id="rId36" xr:uid="{BFDE98A1-6D04-4B89-8956-D3030CD38AD6}"/>
+    <hyperlink ref="G42" r:id="rId37" xr:uid="{67FEFF64-1331-42FD-8915-1EC521A5F24A}"/>
+    <hyperlink ref="G45" r:id="rId38" xr:uid="{BD6435AD-7ED9-4E3E-9E6C-CBC58539481F}"/>
+    <hyperlink ref="G24" r:id="rId39" xr:uid="{58835B4D-8F80-43FA-B322-5108661F409B}"/>
+    <hyperlink ref="G1" r:id="rId40" xr:uid="{3479F6E9-AAA2-498E-8508-C18453B8DA4A}"/>
+    <hyperlink ref="G30" r:id="rId41" xr:uid="{4DD3CE88-8BAC-405E-8B13-70388B935A75}"/>
+    <hyperlink ref="G31" r:id="rId42" xr:uid="{1CD8F7C1-FA91-43FB-805C-670BD05DDC8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId45"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId43"/>
 </worksheet>
 </file>
 
@@ -2325,7 +2262,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2341,21 +2278,21 @@
   <sheetData>
     <row r="1" spans="1:7" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F1" s="33" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>0</v>
@@ -2364,38 +2301,38 @@
         <v>1</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -2404,178 +2341,178 @@
         <v>9</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D5" s="24">
         <v>1212</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="28" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="28" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/MGBC_BOM.xlsx
+++ b/MGBC_BOM.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\MGBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADA0D49-7E1A-45F7-AA65-3DEE266886EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E08BFD-B95D-43C4-A354-18788D377D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{144A499F-D6CC-4A00-9B65-71941FA1A8E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="MGBC-MBL-01" sheetId="1" r:id="rId1"/>
+    <sheet name="MGBC_BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Pocket Mouse Power Board" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MGBC-MBL-01'!$A$2:$G$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MGBC_BOM!$A$2:$G$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -691,7 +691,7 @@
     <t>R1, R22, R23</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=2362d7198d</t>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=09d74b6d14</t>
   </si>
 </sst>
 </file>
@@ -1185,9 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DE7B80-5B2D-4D07-8BFA-0411C41B59CF}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/MGBC_BOM.xlsx
+++ b/MGBC_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\MGBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7E08BFD-B95D-43C4-A354-18788D377D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1E595079-9172-431F-B38F-65D5630C5C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{144A499F-D6CC-4A00-9B65-71941FA1A8E7}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>C9, C10, C29, C33, C41, C45</t>
   </si>
   <si>
-    <t>C12, C24, C43, C52, C53</t>
-  </si>
-  <si>
     <t>Battery terminals</t>
   </si>
   <si>
@@ -580,9 +577,6 @@
     <t>https://www.mouser.com/ProductDetail/KEMET/C0603C104M3RACTU?qs=7q2aiX3Gdlh4qBRaMcnohQ%3D%3D</t>
   </si>
   <si>
-    <t>C3, C11, C16-C19, C39, C40, C48, C49, C51</t>
-  </si>
-  <si>
     <t>C5-C7, C13, C14</t>
   </si>
   <si>
@@ -692,6 +686,12 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=09d74b6d14</t>
+  </si>
+  <si>
+    <t>C3, C12, C24, C43, C52, C53</t>
+  </si>
+  <si>
+    <t>C11, C16-C19, C39, C40, C48, C49, C51</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DE7B80-5B2D-4D07-8BFA-0411C41B59CF}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1202,21 +1204,21 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="F1" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>0</v>
@@ -1225,36 +1227,36 @@
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -1262,13 +1264,13 @@
       <c r="C4" s="18"/>
       <c r="D4" s="24"/>
       <c r="E4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="G4" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1296,10 +1298,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>13</v>
@@ -1314,12 +1316,12 @@
         <v>56</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -1342,10 +1344,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="B8" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
@@ -1360,7 +1362,7 @@
         <v>56</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,7 +1408,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
@@ -1436,16 +1438,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="G12" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,16 +1484,16 @@
         <v>47</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -1506,13 +1508,13 @@
         <v>744235601</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>48</v>
@@ -1520,7 +1522,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1532,39 +1534,39 @@
         <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1576,7 +1578,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="26" t="s">
@@ -1597,11 +1599,11 @@
         <v>1206</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1612,17 +1614,17 @@
         <v>1</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1635,36 +1637,36 @@
       <c r="C21" s="23"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>132</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1672,35 +1674,35 @@
       <c r="C23" s="23"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="G23" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1708,11 +1710,11 @@
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,22 +1725,22 @@
         <v>1</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
@@ -1750,15 +1752,15 @@
         <v>51</v>
       </c>
       <c r="E27" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -1770,18 +1772,18 @@
         <v>51</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B29" s="2">
         <v>5</v>
@@ -1793,10 +1795,10 @@
         <v>51</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -1813,10 +1815,10 @@
         <v>51</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1827,22 +1829,22 @@
         <v>1</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
@@ -1854,11 +1856,11 @@
         <v>51</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1875,10 +1877,10 @@
         <v>51</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1895,15 +1897,15 @@
         <v>51</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -1915,16 +1917,16 @@
         <v>51</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -1936,10 +1938,10 @@
         <v>51</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,21 +1952,21 @@
         <v>1</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D37" s="25">
         <v>1206</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -1972,18 +1974,18 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -1991,29 +1993,29 @@
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F39" s="23"/>
       <c r="G39" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2024,17 +2026,17 @@
         <v>1</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2048,16 +2050,16 @@
         <v>37</v>
       </c>
       <c r="D42" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="F42" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2071,14 +2073,14 @@
         <v>39</v>
       </c>
       <c r="D43" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2089,19 +2091,19 @@
         <v>1</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -2114,13 +2116,13 @@
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,21 +2133,21 @@
         <v>1</v>
       </c>
       <c r="C46" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="G46" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -2154,14 +2156,14 @@
         <v>42</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2172,16 +2174,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2192,17 +2194,17 @@
         <v>1</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2276,21 +2278,21 @@
   <sheetData>
     <row r="1" spans="1:7" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F1" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>127</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>0</v>
@@ -2299,38 +2301,38 @@
         <v>1</v>
       </c>
       <c r="F2" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -2345,97 +2347,97 @@
         <v>52</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>156</v>
       </c>
       <c r="D5" s="24">
         <v>1212</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>174</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>171</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="G8" s="28" t="s">
         <v>92</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
@@ -2447,30 +2449,30 @@
         <v>51</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2481,16 +2483,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2501,16 +2503,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/MGBC_BOM.xlsx
+++ b/MGBC_BOM.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\MGBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1E595079-9172-431F-B38F-65D5630C5C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8721C422-688C-4381-B0C6-DEC6760A7EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{144A499F-D6CC-4A00-9B65-71941FA1A8E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{144A499F-D6CC-4A00-9B65-71941FA1A8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="MGBC_BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Pocket Mouse Power Board" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MGBC_BOM!$A$2:$G$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MGBC_BOM!$A$2:$G$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="218">
   <si>
     <t>Package</t>
   </si>
@@ -127,9 +127,6 @@
     <t>R27</t>
   </si>
   <si>
-    <t>47k</t>
-  </si>
-  <si>
     <t>RA3</t>
   </si>
   <si>
@@ -334,12 +331,6 @@
     <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07100RL?qs=NEN%2FsE%2FLsvPIwIWKCOS4%2FA%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-1047KL?qs=EiqXWrxQq600ZhhpLJs%252BtA%3D%3D</t>
-  </si>
-  <si>
-    <t>R30, R32</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-07510RL?qs=gt6vzsuosg04lV7mPQHzdw%3D%3D</t>
   </si>
   <si>
@@ -667,9 +658,6 @@
     <t>Z0805C221BPWZT</t>
   </si>
   <si>
-    <t>R8, R10, R36</t>
-  </si>
-  <si>
     <t>140k</t>
   </si>
   <si>
@@ -685,20 +673,23 @@
     <t>R1, R22, R23</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=09d74b6d14</t>
-  </si>
-  <si>
     <t>C3, C12, C24, C43, C52, C53</t>
   </si>
   <si>
     <t>C11, C16-C19, C39, C40, C48, C49, C51</t>
+  </si>
+  <si>
+    <t>R8, R10, R30, R32, R36</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=79af12f511</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +732,23 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -797,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -806,8 +814,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -825,42 +831,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1175,7 +1165,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1183,11 +1173,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DE7B80-5B2D-4D07-8BFA-0411C41B59CF}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1200,1011 +1188,964 @@
     <col min="7" max="7" width="158.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="F1" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>218</v>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>145</v>
+      <c r="A3" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>186</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>142</v>
+      <c r="G4" s="13" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>219</v>
+      <c r="A6" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>181</v>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>183</v>
+      <c r="A7" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>55</v>
+      <c r="G7" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>220</v>
+      <c r="A8" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>61</v>
+      <c r="G10" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>182</v>
+      <c r="A11" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="26" t="s">
-        <v>58</v>
+      <c r="G11" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
+      <c r="A12" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>138</v>
+      <c r="D12" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>63</v>
+      <c r="A13" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>744235601</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>744235601</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>72</v>
+      <c r="A16" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>73</v>
+      <c r="A17" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>209</v>
+      <c r="C17" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>185</v>
+      <c r="A18" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1206</v>
+      </c>
+      <c r="E19" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="24">
-        <v>1206</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="G19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="28" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
+      <c r="F22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="12" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="E26" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="G26" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="28" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>217</v>
+      <c r="A27" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>214</v>
+      <c r="A28" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>190</v>
+      <c r="A29" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="20" t="s">
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="20" t="s">
+      <c r="D33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="24">
-        <v>100</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>102</v>
+      <c r="A35" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4">
+        <v>510</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1206</v>
+      </c>
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="18">
-        <v>510</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="25">
-        <v>1206</v>
-      </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="24"/>
+      <c r="D40" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E40" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>34</v>
+      <c r="A41" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="13" t="s">
+      <c r="F41" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="G42" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>38</v>
+      <c r="A43" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="9" t="s">
+      <c r="E43" t="s">
         <v>114</v>
       </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="D45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" t="s">
         <v>118</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G45" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="D46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="24" t="s">
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="13" t="s">
-        <v>109</v>
+      <c r="G48" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2230,30 +2171,29 @@
     <hyperlink ref="G28" r:id="rId19" xr:uid="{79C0FE27-0806-442C-A6CE-F3CC2C6B89FD}"/>
     <hyperlink ref="G33" r:id="rId20" xr:uid="{52FC585F-A5A4-4C1A-BAD7-039005B450BE}"/>
     <hyperlink ref="G34" r:id="rId21" xr:uid="{4F57002D-8AD1-452B-B3F2-84F5AFBE0781}"/>
-    <hyperlink ref="G35" r:id="rId22" xr:uid="{C9270F3C-69B3-4FBA-8E22-74ACEC3FE0BF}"/>
-    <hyperlink ref="G36" r:id="rId23" xr:uid="{1B6B5A8E-BAD5-4F2A-A98F-42922CA8216B}"/>
-    <hyperlink ref="G40" r:id="rId24" xr:uid="{7CC5CD68-8ED8-4B04-B5B7-5996D580BA92}"/>
-    <hyperlink ref="G43" r:id="rId25" xr:uid="{9F6465C5-1171-4956-920C-CE57D73802C9}"/>
-    <hyperlink ref="G44" r:id="rId26" xr:uid="{193E0BC8-3877-4BD2-B4DF-B4CCA21AF575}"/>
-    <hyperlink ref="G46" r:id="rId27" xr:uid="{2BA055BC-33C7-4EC0-B3DE-FCB62EDBF9B6}"/>
-    <hyperlink ref="G22" r:id="rId28" xr:uid="{07E1C21D-7544-4576-ADC3-FDC2DD346D0A}"/>
-    <hyperlink ref="G12" r:id="rId29" xr:uid="{ED7A4517-F5B6-4019-910B-F03FBBD60B75}"/>
-    <hyperlink ref="G23" r:id="rId30" xr:uid="{812C3C35-C462-4997-99B7-C2132E686FDB}"/>
-    <hyperlink ref="G4" r:id="rId31" xr:uid="{5F2542B3-864C-4058-9059-E399B834DEB4}"/>
-    <hyperlink ref="G38" r:id="rId32" xr:uid="{92A70BE1-ACE2-428F-B2EA-1DAE9F879001}"/>
-    <hyperlink ref="G3" r:id="rId33" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
-    <hyperlink ref="G37" r:id="rId34" xr:uid="{054465DB-4302-4E56-A7FE-BF0A1DC2FB83}"/>
-    <hyperlink ref="G47" r:id="rId35" xr:uid="{20355EB6-1FB1-479E-ACCF-8E1D13E155F6}"/>
-    <hyperlink ref="G48" r:id="rId36" xr:uid="{BFDE98A1-6D04-4B89-8956-D3030CD38AD6}"/>
-    <hyperlink ref="G42" r:id="rId37" xr:uid="{67FEFF64-1331-42FD-8915-1EC521A5F24A}"/>
-    <hyperlink ref="G45" r:id="rId38" xr:uid="{BD6435AD-7ED9-4E3E-9E6C-CBC58539481F}"/>
-    <hyperlink ref="G24" r:id="rId39" xr:uid="{58835B4D-8F80-43FA-B322-5108661F409B}"/>
-    <hyperlink ref="G1" r:id="rId40" xr:uid="{3479F6E9-AAA2-498E-8508-C18453B8DA4A}"/>
-    <hyperlink ref="G30" r:id="rId41" xr:uid="{4DD3CE88-8BAC-405E-8B13-70388B935A75}"/>
-    <hyperlink ref="G31" r:id="rId42" xr:uid="{1CD8F7C1-FA91-43FB-805C-670BD05DDC8E}"/>
+    <hyperlink ref="G35" r:id="rId22" xr:uid="{1B6B5A8E-BAD5-4F2A-A98F-42922CA8216B}"/>
+    <hyperlink ref="G39" r:id="rId23" xr:uid="{7CC5CD68-8ED8-4B04-B5B7-5996D580BA92}"/>
+    <hyperlink ref="G42" r:id="rId24" xr:uid="{9F6465C5-1171-4956-920C-CE57D73802C9}"/>
+    <hyperlink ref="G43" r:id="rId25" xr:uid="{193E0BC8-3877-4BD2-B4DF-B4CCA21AF575}"/>
+    <hyperlink ref="G45" r:id="rId26" xr:uid="{2BA055BC-33C7-4EC0-B3DE-FCB62EDBF9B6}"/>
+    <hyperlink ref="G22" r:id="rId27" xr:uid="{07E1C21D-7544-4576-ADC3-FDC2DD346D0A}"/>
+    <hyperlink ref="G12" r:id="rId28" xr:uid="{ED7A4517-F5B6-4019-910B-F03FBBD60B75}"/>
+    <hyperlink ref="G23" r:id="rId29" xr:uid="{812C3C35-C462-4997-99B7-C2132E686FDB}"/>
+    <hyperlink ref="G4" r:id="rId30" xr:uid="{5F2542B3-864C-4058-9059-E399B834DEB4}"/>
+    <hyperlink ref="G37" r:id="rId31" xr:uid="{92A70BE1-ACE2-428F-B2EA-1DAE9F879001}"/>
+    <hyperlink ref="G3" r:id="rId32" xr:uid="{5EE82CD8-A712-4357-89A6-FC011574E072}"/>
+    <hyperlink ref="G36" r:id="rId33" xr:uid="{054465DB-4302-4E56-A7FE-BF0A1DC2FB83}"/>
+    <hyperlink ref="G46" r:id="rId34" xr:uid="{20355EB6-1FB1-479E-ACCF-8E1D13E155F6}"/>
+    <hyperlink ref="G47" r:id="rId35" xr:uid="{BFDE98A1-6D04-4B89-8956-D3030CD38AD6}"/>
+    <hyperlink ref="G41" r:id="rId36" xr:uid="{67FEFF64-1331-42FD-8915-1EC521A5F24A}"/>
+    <hyperlink ref="G44" r:id="rId37" xr:uid="{BD6435AD-7ED9-4E3E-9E6C-CBC58539481F}"/>
+    <hyperlink ref="G24" r:id="rId38" xr:uid="{58835B4D-8F80-43FA-B322-5108661F409B}"/>
+    <hyperlink ref="G1" r:id="rId39" xr:uid="{3479F6E9-AAA2-498E-8508-C18453B8DA4A}"/>
+    <hyperlink ref="G30" r:id="rId40" xr:uid="{4DD3CE88-8BAC-405E-8B13-70388B935A75}"/>
+    <hyperlink ref="G31" r:id="rId41" xr:uid="{1CD8F7C1-FA91-43FB-805C-670BD05DDC8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId43"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -2262,7 +2202,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,247 +2212,245 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="136" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F1" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F1" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="G2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>197</v>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>179</v>
+      <c r="C3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>166</v>
+      <c r="A4" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>199</v>
+      <c r="G4" s="17" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>154</v>
+      <c r="A5" s="20" t="s">
+        <v>151</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1212</v>
+      </c>
+      <c r="E5" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="24">
-        <v>1212</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>156</v>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>168</v>
+      <c r="C6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>165</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="23" t="s">
+      <c r="G8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>205</v>
+      <c r="A9" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>96</v>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>198</v>
+      <c r="A10" s="20" t="s">
+        <v>195</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>161</v>
+      <c r="C10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="G11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
+      <c r="A12" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>176</v>
+      <c r="C12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/MGBC_BOM.xlsx
+++ b/MGBC_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\EAGLE9\projects\MGBC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE1F1D3-4E93-4BAB-8F3D-2DDFE775AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB6E798E-38BE-4CAF-BAA2-2615F45CCE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{144A499F-D6CC-4A00-9B65-71941FA1A8E7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="250">
   <si>
     <t>Package</t>
   </si>
@@ -251,9 +251,6 @@
     <t>https://www.mouser.com/ProductDetail/Murata-Electronics/BLA31AG601SN4D?qs=2ahBf5rJw09FDcUVkQibEg%3D%3D</t>
   </si>
   <si>
-    <t>LCD connector</t>
-  </si>
-  <si>
     <t>151033RS03000</t>
   </si>
   <si>
@@ -479,18 +476,9 @@
     <t>https://www.mouser.com/ProductDetail/Murata-Electronics/LQH3NPN2R2MMEL?qs=sJ5gq5MLFXqbWZz8NzZoog%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TPS61202DSCR?qs=WxL8HmPi5r6YtrNaHRAS2Q%3D%3D</t>
-  </si>
-  <si>
-    <t>WSON-10</t>
-  </si>
-  <si>
     <t>Power Board</t>
   </si>
   <si>
-    <t>C2, C4</t>
-  </si>
-  <si>
     <t>Q3</t>
   </si>
   <si>
@@ -581,9 +569,6 @@
     <t>10k (x2)</t>
   </si>
   <si>
-    <t>C1, C3, C5</t>
-  </si>
-  <si>
     <t>R2, R3, R5</t>
   </si>
   <si>
@@ -605,27 +590,12 @@
     <t>https://www.aliexpress.us/item/2255800460672253.html?spm=a2g0o.order_list.order_list_main.23.c0c31802sdJmTz&amp;gatewayAdapt=glo2usa&amp;_randl_shipto=US</t>
   </si>
   <si>
-    <t>R1, R4, R6, R8</t>
-  </si>
-  <si>
     <t>Cart link:</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=39b200294d</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/KEMET/C0603C105K3PACTU?qs=STjISULpmtalQKXy67%252B4Cg%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/KEMET/Z0805C221BPWZT?qs=W0XMKc1ssG4b8%2FEBVn2KJA%3D%3D</t>
-  </si>
-  <si>
-    <t>Replacement: FBMH2012HM221-T</t>
-  </si>
-  <si>
-    <t>Z0805C221BPWZT</t>
-  </si>
-  <si>
     <t>R2, R25</t>
   </si>
   <si>
@@ -713,9 +683,6 @@
     <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=79af12f511</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=dcb5fa1d47</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
@@ -726,6 +693,93 @@
   </si>
   <si>
     <t>Removals from v1.6+ BOM</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/78-BAT42WS-E3-18</t>
+  </si>
+  <si>
+    <t>BAT42</t>
+  </si>
+  <si>
+    <t>SOD323</t>
+  </si>
+  <si>
+    <t>Schottky Diode</t>
+  </si>
+  <si>
+    <t>Only used on v1.3</t>
+  </si>
+  <si>
+    <t>C2 is removed on v1.3</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C1, C3</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Murata-Electronics/GRM21BR61A476ME15L?qs=hNud%2FORuBR2%2FEB7WUpdltg%3D%3D</t>
+  </si>
+  <si>
+    <t>X5R or better, 10V or higher</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>R1, R4, R8</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RC0603FR-0747KL?qs=gt6vzsuosg3jXzmCiDCCdg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TPS61202DRCR?qs=KS%252B%252BetD%2FUt9ba9GgZBolfg%3D%3D</t>
+  </si>
+  <si>
+    <t>VSON-10</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>10129378-904001BLF</t>
+  </si>
+  <si>
+    <t>1x4 Header Pins</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/649-1012937890401BLF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/649-1012937890301BLF</t>
+  </si>
+  <si>
+    <t>1x3 Header Pins</t>
+  </si>
+  <si>
+    <t>10129378-903001BLF</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=06e5e0c692</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=854e7f6cf9</t>
+  </si>
+  <si>
+    <t>Replacement: Z0805C221BPWZT</t>
+  </si>
+  <si>
+    <t>LCMGA201208T221RG</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/TAIYO-YUDEN/LCMGA201208T221RG?qs=tlsG%2FOw5FFhaNdb0vekDOQ%3D%3D</t>
+  </si>
+  <si>
+    <t>FFC connector</t>
   </si>
 </sst>
 </file>
@@ -842,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,6 +942,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1213,15 +1268,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="104.85546875" bestFit="1" customWidth="1"/>
@@ -1230,21 +1283,21 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F1" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>227</v>
+        <v>186</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
@@ -1253,35 +1306,35 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
         <v>132</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>133</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -1295,7 +1348,7 @@
         <v>56</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,7 +1376,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -1346,7 +1399,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
@@ -1364,7 +1417,7 @@
         <v>49</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,7 +1442,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
@@ -1409,7 +1462,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
@@ -1418,13 +1471,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1435,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>44</v>
@@ -1452,13 +1505,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>65</v>
@@ -1467,12 +1520,12 @@
         <v>45</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B13" s="2">
         <v>9</v>
@@ -1490,7 +1543,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1539,22 +1592,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1585,7 +1638,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>65</v>
@@ -1594,10 +1647,10 @@
         <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1611,7 +1664,7 @@
         <v>744235601</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
@@ -1625,7 +1678,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -1671,35 +1724,35 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1712,63 +1765,63 @@
         <v>69</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
@@ -1780,15 +1833,15 @@
         <v>44</v>
       </c>
       <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
@@ -1800,18 +1853,18 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B30" s="2">
         <v>5</v>
@@ -1823,15 +1876,15 @@
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2">
         <v>6</v>
@@ -1843,50 +1896,50 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,10 +1956,10 @@
         <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1923,15 +1976,15 @@
         <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -1943,10 +1996,10 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1957,21 +2010,21 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D37" s="5">
         <v>1206</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -1979,45 +2032,45 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2028,16 +2081,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2051,16 +2104,16 @@
         <v>30</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
         <v>99</v>
-      </c>
-      <c r="E42" t="s">
-        <v>100</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>67</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2074,13 +2127,13 @@
         <v>32</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
         <v>101</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2091,19 +2144,19 @@
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" t="s">
         <v>105</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>106</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,13 +2169,13 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,21 +2186,21 @@
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="G46" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -2156,13 +2209,13 @@
         <v>35</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2173,16 +2226,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2193,16 +2246,16 @@
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2313,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,44 +2329,44 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>0</v>
@@ -2322,15 +2375,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -2348,72 +2401,72 @@
         <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>81</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2425,10 +2478,10 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2447,15 +2500,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E89B9B1-0178-4F72-BB80-7F150CC8B06E}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
@@ -2464,21 +2519,21 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F1" s="18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>0</v>
@@ -2487,21 +2542,21 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>65</v>
@@ -2510,18 +2565,18 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -2532,189 +2587,302 @@
       <c r="E4" t="s">
         <v>45</v>
       </c>
+      <c r="F4" t="s">
+        <v>226</v>
+      </c>
       <c r="G4" s="17" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1212</v>
+        <v>159</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>222</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>160</v>
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1212</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
+      </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>151</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>87</v>
+        <v>152</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>150</v>
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>162</v>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G12" r:id="rId1" xr:uid="{D04C342D-C510-4BA3-86A4-B93959B5C5AE}"/>
-    <hyperlink ref="I12" r:id="rId2" display="https://www.mouser.com/ProductDetail/Texas-Instruments/TPS3840DL35DBVR?qs=7MVldsJ5UawbjRj7dP73rA%3D%3D" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{0B26FFA3-6CA8-4A8F-8103-037C4D7B3C6B}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{AEFF0153-D814-4872-8654-21A02CE7EBD7}"/>
-    <hyperlink ref="G11" r:id="rId5" xr:uid="{D9413997-8D3D-413D-8896-1D8500EFFB05}"/>
+    <hyperlink ref="G15" r:id="rId1" xr:uid="{D04C342D-C510-4BA3-86A4-B93959B5C5AE}"/>
+    <hyperlink ref="I15" r:id="rId2" display="https://www.mouser.com/ProductDetail/Texas-Instruments/TPS3840DL35DBVR?qs=7MVldsJ5UawbjRj7dP73rA%3D%3D" xr:uid="{ED18DA08-52BB-4482-A5C9-3384A00E2C1D}"/>
+    <hyperlink ref="G12" r:id="rId3" xr:uid="{0B26FFA3-6CA8-4A8F-8103-037C4D7B3C6B}"/>
+    <hyperlink ref="G11" r:id="rId4" xr:uid="{AEFF0153-D814-4872-8654-21A02CE7EBD7}"/>
+    <hyperlink ref="G14" r:id="rId5" xr:uid="{D9413997-8D3D-413D-8896-1D8500EFFB05}"/>
     <hyperlink ref="G4" r:id="rId6" display="https://www.mouser.com/ProductDetail/KEMET/C0603C104M3RACTU?qs=7q2aiX3Gdlh4qBRaMcnohQ%3D%3D" xr:uid="{6473A90E-0EF0-472B-8B40-74845D4185FE}"/>
     <hyperlink ref="G3" r:id="rId7" xr:uid="{885E474A-BE11-4460-B26D-C1BF9ACEBCB8}"/>
-    <hyperlink ref="G5" r:id="rId8" xr:uid="{0941AF50-9AFB-42A4-A04C-6B84D732C80B}"/>
-    <hyperlink ref="G8" r:id="rId9" xr:uid="{F7D9ECBE-15DF-4AC4-8015-619CCB3CC21E}"/>
-    <hyperlink ref="G7" r:id="rId10" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
-    <hyperlink ref="G6" r:id="rId11" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{0941AF50-9AFB-42A4-A04C-6B84D732C80B}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{F7D9ECBE-15DF-4AC4-8015-619CCB3CC21E}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{D943B67D-300C-4956-A7AE-47B96220F434}"/>
+    <hyperlink ref="G8" r:id="rId11" xr:uid="{6AC22696-1EDA-4095-912A-4298E202269E}"/>
     <hyperlink ref="G1" r:id="rId12" xr:uid="{05A3B922-6032-4939-974F-DB5BA54DC176}"/>
+    <hyperlink ref="G5" r:id="rId13" xr:uid="{DFC114E3-008D-42C3-8603-C8D02CCDCE81}"/>
+    <hyperlink ref="G13" r:id="rId14" xr:uid="{B15428E0-B585-4D38-913D-157D5055AC8A}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{036BB0A9-4FA1-466E-BE2C-5A43FAD544D0}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{DDAF2907-66CB-4D4A-954A-C97D20DE567C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>